--- a/doc/ue_ios_appdeletage.xlsx
+++ b/doc/ue_ios_appdeletage.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E71C8-A075-498B-98BD-A4E7B74ECD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78532ACF-CF7B-4A3B-8562-4C7494AD34A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="UE4-IOS系统回调-IOS主线程" sheetId="3" r:id="rId2"/>
     <sheet name="UE-主线程" sheetId="4" r:id="rId3"/>
+    <sheet name="FSuspendRenderingThread" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>IOS系统回调</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +216,86 @@
   </si>
   <si>
     <t>!!!UE5没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSuspendRenderingThread是最恶心的地方：其在析构里面会强制刷新所有GameThread上的TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在释放AsyncLoading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这样子就导致系统的事件先与释放AsyncThreading执行，如果有加载资源就FATAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Destructor that starts the renderthread again */</t>
+  </si>
+  <si>
+    <t>FSuspendRenderingThread::~FSuspendRenderingThread()</t>
+  </si>
+  <si>
+    <t>if ( bRecreateThread )</t>
+  </si>
+  <si>
+    <t>GUseThreadedRendering = bUseRenderingThread;</t>
+  </si>
+  <si>
+    <t>--GIsRenderingThreadSuspended;</t>
+  </si>
+  <si>
+    <t>if ( bUseRenderingThread &amp;&amp; bWasRenderingThreadRunning )</t>
+  </si>
+  <si>
+    <t>StartRenderingThread();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // Now tell the render thread to set it self to real time mode</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FSimpleDelegateGraphTask.SetRealTimeMode"),</t>
+  </si>
+  <si>
+    <t>STAT_FSimpleDelegateGraphTask_SetRealTimeMode,</t>
+  </si>
+  <si>
+    <t>STATGROUP_TaskGraphTasks);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            FSimpleDelegateGraphTask::CreateAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FSimpleDelegateGraphTask::FDelegate::CreateStatic(&amp;FPlatformProcess::SetRealTimeMode),</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FSimpleDelegateGraphTask_SetRealTimeMode), NULL, ENamedThreads::GetRenderThread()</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>// Resume the render thread again.</t>
+  </si>
+  <si>
+    <t>// Resume any asset streaming</t>
+  </si>
+  <si>
+    <t>ResumeTextureStreamingRenderTasks();</t>
+  </si>
+  <si>
+    <t>if (IsAsyncLoadingMultithreaded())</t>
+  </si>
+  <si>
+    <t>ResumeAsyncLoading();</t>
+  </si>
+  <si>
+    <t>！！！内部会强制执行所有GameThread上的TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">！！！重新激活AsynvLoading </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,4 +1044,204 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3498A47-AA88-49FA-A251-D20F31A6FF44}">
+  <dimension ref="B4:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>